--- a/observations/orbit_plans/mtp040/nomad_mtp040_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp040/nomad_mtp040_plan_generic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB6124-2D8F-4F58-93C1-41B52610E863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2903DD0E-4FFA-4756-9A78-2F799A962258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,9 +244,6 @@
     <t>2021 APR 20 09:10:35</t>
   </si>
   <si>
-    <t xml:space="preserve">&amp;mergedMatch:CERBERUS FOSSAE; </t>
-  </si>
-  <si>
     <t>6SUBD Nominal #45</t>
   </si>
   <si>
@@ -1571,6 +1568,9 @@
   </si>
   <si>
     <t xml:space="preserve">&amp;daysideMatch:EAST THAUMASIA; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:CERBERUS FOSSAE; </t>
   </si>
 </sst>
 </file>
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2732,7 +2732,7 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
@@ -2741,7 +2741,7 @@
         <v>73</v>
       </c>
       <c r="M35" t="s">
-        <v>74</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2749,13 +2749,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
@@ -2764,10 +2764,10 @@
         <v>8</v>
       </c>
       <c r="L36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" t="s">
         <v>77</v>
-      </c>
-      <c r="M36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2778,10 +2778,10 @@
         <v>8</v>
       </c>
       <c r="L37" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" t="s">
         <v>79</v>
-      </c>
-      <c r="M37" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2789,13 +2789,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
         <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -2804,10 +2804,10 @@
         <v>8</v>
       </c>
       <c r="L38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" t="s">
         <v>81</v>
-      </c>
-      <c r="M38" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2818,10 +2818,10 @@
         <v>8</v>
       </c>
       <c r="L39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" t="s">
         <v>83</v>
-      </c>
-      <c r="M39" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2832,10 +2832,10 @@
         <v>8</v>
       </c>
       <c r="L40" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" t="s">
         <v>85</v>
-      </c>
-      <c r="M40" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2843,22 +2843,22 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" t="s">
-        <v>88</v>
-      </c>
       <c r="M41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2869,10 +2869,10 @@
         <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2880,13 +2880,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
@@ -2895,10 +2895,10 @@
         <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2909,10 +2909,10 @@
         <v>8</v>
       </c>
       <c r="L44" t="s">
+        <v>90</v>
+      </c>
+      <c r="M44" t="s">
         <v>91</v>
-      </c>
-      <c r="M44" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2923,10 +2923,10 @@
         <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2934,22 +2934,22 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s">
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2957,22 +2957,22 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s">
         <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2983,10 +2983,10 @@
         <v>8</v>
       </c>
       <c r="L48" t="s">
+        <v>95</v>
+      </c>
+      <c r="M48" t="s">
         <v>96</v>
-      </c>
-      <c r="M48" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2997,10 +2997,10 @@
         <v>8</v>
       </c>
       <c r="L49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -3014,10 +3014,10 @@
         <v>8</v>
       </c>
       <c r="L50" t="s">
+        <v>98</v>
+      </c>
+      <c r="M50" t="s">
         <v>99</v>
-      </c>
-      <c r="M50" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -3028,10 +3028,10 @@
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -3042,10 +3042,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="s">
+        <v>101</v>
+      </c>
+      <c r="M52" t="s">
         <v>102</v>
-      </c>
-      <c r="M52" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -3053,16 +3053,16 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I53" t="s">
         <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3073,10 +3073,10 @@
         <v>8</v>
       </c>
       <c r="L54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3087,10 +3087,10 @@
         <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -3101,10 +3101,10 @@
         <v>8</v>
       </c>
       <c r="L56" t="s">
+        <v>106</v>
+      </c>
+      <c r="M56" t="s">
         <v>107</v>
-      </c>
-      <c r="M56" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -3115,10 +3115,10 @@
         <v>8</v>
       </c>
       <c r="L57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3132,10 +3132,10 @@
         <v>8</v>
       </c>
       <c r="L58" t="s">
+        <v>109</v>
+      </c>
+      <c r="M58" t="s">
         <v>110</v>
-      </c>
-      <c r="M58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3146,10 +3146,10 @@
         <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3160,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="L60" t="s">
+        <v>112</v>
+      </c>
+      <c r="M60" t="s">
         <v>113</v>
-      </c>
-      <c r="M60" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -3174,10 +3174,10 @@
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3188,10 +3188,10 @@
         <v>8</v>
       </c>
       <c r="L62" t="s">
+        <v>115</v>
+      </c>
+      <c r="M62" t="s">
         <v>116</v>
-      </c>
-      <c r="M62" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="L63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3216,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="L64" t="s">
+        <v>118</v>
+      </c>
+      <c r="M64" t="s">
         <v>119</v>
-      </c>
-      <c r="M64" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3233,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="L65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3247,10 +3247,10 @@
         <v>8</v>
       </c>
       <c r="L66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3261,10 +3261,10 @@
         <v>8</v>
       </c>
       <c r="L67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3275,10 +3275,10 @@
         <v>8</v>
       </c>
       <c r="L68" t="s">
+        <v>123</v>
+      </c>
+      <c r="M68" t="s">
         <v>124</v>
-      </c>
-      <c r="M68" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3292,10 +3292,10 @@
         <v>9</v>
       </c>
       <c r="L69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3306,10 +3306,10 @@
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3320,10 +3320,10 @@
         <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3331,16 +3331,16 @@
         <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I72" t="s">
         <v>8</v>
       </c>
       <c r="L72" t="s">
+        <v>128</v>
+      </c>
+      <c r="M72" t="s">
         <v>129</v>
-      </c>
-      <c r="M72" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="L73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -3365,10 +3365,10 @@
         <v>8</v>
       </c>
       <c r="L74" t="s">
+        <v>131</v>
+      </c>
+      <c r="M74" t="s">
         <v>132</v>
-      </c>
-      <c r="M74" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3379,10 +3379,10 @@
         <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -3393,10 +3393,10 @@
         <v>8</v>
       </c>
       <c r="L76" t="s">
+        <v>134</v>
+      </c>
+      <c r="M76" t="s">
         <v>135</v>
-      </c>
-      <c r="M76" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -3410,10 +3410,10 @@
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3424,10 +3424,10 @@
         <v>8</v>
       </c>
       <c r="L78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3435,16 +3435,16 @@
         <v>28</v>
       </c>
       <c r="H79" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" t="s">
         <v>139</v>
       </c>
-      <c r="I79" t="s">
+      <c r="L79" t="s">
         <v>140</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>141</v>
-      </c>
-      <c r="M79" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -3455,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="L80" t="s">
+        <v>142</v>
+      </c>
+      <c r="M80" t="s">
         <v>143</v>
-      </c>
-      <c r="M80" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -3469,10 +3469,10 @@
         <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -3483,10 +3483,10 @@
         <v>8</v>
       </c>
       <c r="L82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -3494,16 +3494,16 @@
         <v>28</v>
       </c>
       <c r="H83" t="s">
+        <v>138</v>
+      </c>
+      <c r="I83" t="s">
         <v>139</v>
       </c>
-      <c r="I83" t="s">
-        <v>140</v>
-      </c>
       <c r="L83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -3514,10 +3514,10 @@
         <v>8</v>
       </c>
       <c r="L84" t="s">
+        <v>147</v>
+      </c>
+      <c r="M84" t="s">
         <v>148</v>
-      </c>
-      <c r="M84" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -3528,10 +3528,10 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -3539,10 +3539,10 @@
         <v>14</v>
       </c>
       <c r="L86" t="s">
+        <v>150</v>
+      </c>
+      <c r="M86" t="s">
         <v>151</v>
-      </c>
-      <c r="M86" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -3550,10 +3550,10 @@
         <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -3567,10 +3567,10 @@
         <v>8</v>
       </c>
       <c r="L88" t="s">
+        <v>153</v>
+      </c>
+      <c r="M88" t="s">
         <v>154</v>
-      </c>
-      <c r="M88" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -3595,10 +3595,10 @@
         <v>8</v>
       </c>
       <c r="L90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -3609,10 +3609,10 @@
         <v>8</v>
       </c>
       <c r="L91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -3623,10 +3623,10 @@
         <v>8</v>
       </c>
       <c r="L92" t="s">
+        <v>158</v>
+      </c>
+      <c r="M92" t="s">
         <v>159</v>
-      </c>
-      <c r="M92" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -3634,16 +3634,16 @@
         <v>28</v>
       </c>
       <c r="H93" t="s">
+        <v>138</v>
+      </c>
+      <c r="I93" t="s">
         <v>139</v>
       </c>
-      <c r="I93" t="s">
-        <v>140</v>
-      </c>
       <c r="L93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -3654,10 +3654,10 @@
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -3671,10 +3671,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -3688,10 +3688,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -3702,10 +3702,10 @@
         <v>8</v>
       </c>
       <c r="L97" t="s">
+        <v>164</v>
+      </c>
+      <c r="M97" t="s">
         <v>165</v>
-      </c>
-      <c r="M97" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -3716,10 +3716,10 @@
         <v>8</v>
       </c>
       <c r="L98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -3730,10 +3730,10 @@
         <v>8</v>
       </c>
       <c r="L99" t="s">
+        <v>167</v>
+      </c>
+      <c r="M99" t="s">
         <v>168</v>
-      </c>
-      <c r="M99" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -3744,10 +3744,10 @@
         <v>8</v>
       </c>
       <c r="L100" t="s">
+        <v>169</v>
+      </c>
+      <c r="M100" t="s">
         <v>170</v>
-      </c>
-      <c r="M100" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -3758,10 +3758,10 @@
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -3775,10 +3775,10 @@
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -3789,10 +3789,10 @@
         <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -3803,10 +3803,10 @@
         <v>8</v>
       </c>
       <c r="L104" t="s">
+        <v>174</v>
+      </c>
+      <c r="M104" t="s">
         <v>175</v>
-      </c>
-      <c r="M104" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -3817,10 +3817,10 @@
         <v>8</v>
       </c>
       <c r="L105" t="s">
+        <v>176</v>
+      </c>
+      <c r="M105" t="s">
         <v>177</v>
-      </c>
-      <c r="M105" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -3831,10 +3831,10 @@
         <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -3845,10 +3845,10 @@
         <v>8</v>
       </c>
       <c r="L107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -3856,16 +3856,16 @@
         <v>8</v>
       </c>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I108" t="s">
         <v>8</v>
       </c>
       <c r="L108" t="s">
+        <v>180</v>
+      </c>
+      <c r="M108" t="s">
         <v>181</v>
-      </c>
-      <c r="M108" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -3876,10 +3876,10 @@
         <v>8</v>
       </c>
       <c r="L109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M109" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -3890,10 +3890,10 @@
         <v>8</v>
       </c>
       <c r="L110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -3907,10 +3907,10 @@
         <v>9</v>
       </c>
       <c r="L111" t="s">
+        <v>184</v>
+      </c>
+      <c r="M111" t="s">
         <v>185</v>
-      </c>
-      <c r="M111" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -3921,10 +3921,10 @@
         <v>8</v>
       </c>
       <c r="L112" t="s">
+        <v>186</v>
+      </c>
+      <c r="M112" t="s">
         <v>187</v>
-      </c>
-      <c r="M112" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -3935,10 +3935,10 @@
         <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -3949,10 +3949,10 @@
         <v>8</v>
       </c>
       <c r="L114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -3966,10 +3966,10 @@
         <v>8</v>
       </c>
       <c r="L115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -3980,10 +3980,10 @@
         <v>8</v>
       </c>
       <c r="L116" t="s">
+        <v>191</v>
+      </c>
+      <c r="M116" t="s">
         <v>192</v>
-      </c>
-      <c r="M116" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -3994,10 +3994,10 @@
         <v>8</v>
       </c>
       <c r="L117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -4008,10 +4008,10 @@
         <v>8</v>
       </c>
       <c r="L118" t="s">
+        <v>194</v>
+      </c>
+      <c r="M118" t="s">
         <v>195</v>
-      </c>
-      <c r="M118" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -4022,10 +4022,10 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -4036,10 +4036,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
+        <v>197</v>
+      </c>
+      <c r="M120" t="s">
         <v>198</v>
-      </c>
-      <c r="M120" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -4050,10 +4050,10 @@
         <v>8</v>
       </c>
       <c r="L121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -4061,16 +4061,16 @@
         <v>28</v>
       </c>
       <c r="H122" t="s">
+        <v>138</v>
+      </c>
+      <c r="I122" t="s">
         <v>139</v>
       </c>
-      <c r="I122" t="s">
-        <v>140</v>
-      </c>
       <c r="L122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -4081,10 +4081,10 @@
         <v>8</v>
       </c>
       <c r="L123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -4095,10 +4095,10 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
+        <v>202</v>
+      </c>
+      <c r="M124" t="s">
         <v>203</v>
-      </c>
-      <c r="M124" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -4109,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -4123,10 +4123,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -4137,10 +4137,10 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -4154,10 +4154,10 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
+        <v>207</v>
+      </c>
+      <c r="M128" t="s">
         <v>208</v>
-      </c>
-      <c r="M128" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -4168,10 +4168,10 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -4182,10 +4182,10 @@
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -4196,10 +4196,10 @@
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -4210,10 +4210,10 @@
         <v>8</v>
       </c>
       <c r="L132" t="s">
+        <v>212</v>
+      </c>
+      <c r="M132" t="s">
         <v>213</v>
-      </c>
-      <c r="M132" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -4224,10 +4224,10 @@
         <v>8</v>
       </c>
       <c r="L133" t="s">
+        <v>214</v>
+      </c>
+      <c r="M133" t="s">
         <v>215</v>
-      </c>
-      <c r="M133" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -4238,10 +4238,10 @@
         <v>8</v>
       </c>
       <c r="L134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -4252,10 +4252,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -4269,10 +4269,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -4283,10 +4283,10 @@
         <v>8</v>
       </c>
       <c r="L137" t="s">
+        <v>219</v>
+      </c>
+      <c r="M137" t="s">
         <v>220</v>
-      </c>
-      <c r="M137" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -4297,10 +4297,10 @@
         <v>8</v>
       </c>
       <c r="L138" t="s">
+        <v>221</v>
+      </c>
+      <c r="M138" t="s">
         <v>222</v>
-      </c>
-      <c r="M138" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -4311,10 +4311,10 @@
         <v>8</v>
       </c>
       <c r="L139" t="s">
+        <v>223</v>
+      </c>
+      <c r="M139" t="s">
         <v>224</v>
-      </c>
-      <c r="M139" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -4328,10 +4328,10 @@
         <v>9</v>
       </c>
       <c r="L140" t="s">
+        <v>225</v>
+      </c>
+      <c r="M140" t="s">
         <v>226</v>
-      </c>
-      <c r="M140" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -4342,10 +4342,10 @@
         <v>8</v>
       </c>
       <c r="L141" t="s">
+        <v>227</v>
+      </c>
+      <c r="M141" t="s">
         <v>228</v>
-      </c>
-      <c r="M141" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -4356,10 +4356,10 @@
         <v>8</v>
       </c>
       <c r="L142" t="s">
+        <v>229</v>
+      </c>
+      <c r="M142" t="s">
         <v>230</v>
-      </c>
-      <c r="M142" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
@@ -4373,10 +4373,10 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
+        <v>231</v>
+      </c>
+      <c r="M143" t="s">
         <v>232</v>
-      </c>
-      <c r="M143" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -4387,10 +4387,10 @@
         <v>8</v>
       </c>
       <c r="L144" t="s">
+        <v>233</v>
+      </c>
+      <c r="M144" t="s">
         <v>234</v>
-      </c>
-      <c r="M144" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -4401,10 +4401,10 @@
         <v>8</v>
       </c>
       <c r="L145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
@@ -4415,10 +4415,10 @@
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M146" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -4429,10 +4429,10 @@
         <v>8</v>
       </c>
       <c r="L147" t="s">
+        <v>237</v>
+      </c>
+      <c r="M147" t="s">
         <v>238</v>
-      </c>
-      <c r="M147" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -4443,10 +4443,10 @@
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M148" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
@@ -4460,10 +4460,10 @@
         <v>8</v>
       </c>
       <c r="L149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M149" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -4474,10 +4474,10 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
@@ -4488,10 +4488,10 @@
         <v>8</v>
       </c>
       <c r="L151" t="s">
+        <v>242</v>
+      </c>
+      <c r="M151" t="s">
         <v>243</v>
-      </c>
-      <c r="M151" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
@@ -4502,10 +4502,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M152" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
@@ -4519,10 +4519,10 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -4533,10 +4533,10 @@
         <v>8</v>
       </c>
       <c r="L154" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M154" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -4547,10 +4547,10 @@
         <v>8</v>
       </c>
       <c r="L155" t="s">
+        <v>247</v>
+      </c>
+      <c r="M155" t="s">
         <v>248</v>
-      </c>
-      <c r="M155" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
@@ -4561,10 +4561,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
+        <v>249</v>
+      </c>
+      <c r="M156" t="s">
         <v>250</v>
-      </c>
-      <c r="M156" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -4572,10 +4572,10 @@
         <v>14</v>
       </c>
       <c r="L157" t="s">
+        <v>251</v>
+      </c>
+      <c r="M157" t="s">
         <v>252</v>
-      </c>
-      <c r="M157" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -4586,10 +4586,10 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M158" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
@@ -4600,10 +4600,10 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
+        <v>254</v>
+      </c>
+      <c r="M159" t="s">
         <v>255</v>
-      </c>
-      <c r="M159" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
@@ -4614,10 +4614,10 @@
         <v>8</v>
       </c>
       <c r="L160" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M160" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -4631,10 +4631,10 @@
         <v>8</v>
       </c>
       <c r="L161" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M161" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -4645,10 +4645,10 @@
         <v>8</v>
       </c>
       <c r="L162" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M162" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -4659,10 +4659,10 @@
         <v>8</v>
       </c>
       <c r="L163" t="s">
+        <v>259</v>
+      </c>
+      <c r="M163" t="s">
         <v>260</v>
-      </c>
-      <c r="M163" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -4673,10 +4673,10 @@
         <v>8</v>
       </c>
       <c r="L164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -4687,10 +4687,10 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M165" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -4701,10 +4701,10 @@
         <v>8</v>
       </c>
       <c r="L166" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M166" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -4718,10 +4718,10 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
+        <v>264</v>
+      </c>
+      <c r="M167" t="s">
         <v>265</v>
-      </c>
-      <c r="M167" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -4732,10 +4732,10 @@
         <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M168" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -4746,10 +4746,10 @@
         <v>8</v>
       </c>
       <c r="L169" t="s">
+        <v>267</v>
+      </c>
+      <c r="M169" t="s">
         <v>268</v>
-      </c>
-      <c r="M169" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
@@ -4760,10 +4760,10 @@
         <v>8</v>
       </c>
       <c r="L170" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M170" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -4771,10 +4771,10 @@
         <v>14</v>
       </c>
       <c r="L171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -4782,10 +4782,10 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
+        <v>271</v>
+      </c>
+      <c r="M172" t="s">
         <v>272</v>
-      </c>
-      <c r="M172" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -4796,10 +4796,10 @@
         <v>8</v>
       </c>
       <c r="L173" t="s">
+        <v>273</v>
+      </c>
+      <c r="M173" t="s">
         <v>274</v>
-      </c>
-      <c r="M173" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -4813,10 +4813,10 @@
         <v>8</v>
       </c>
       <c r="L174" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M174" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -4827,10 +4827,10 @@
         <v>8</v>
       </c>
       <c r="L175" t="s">
+        <v>276</v>
+      </c>
+      <c r="M175" t="s">
         <v>277</v>
-      </c>
-      <c r="M175" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -4841,10 +4841,10 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M176" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
@@ -4852,10 +4852,10 @@
         <v>14</v>
       </c>
       <c r="L177" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M177" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -4866,10 +4866,10 @@
         <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M178" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -4880,10 +4880,10 @@
         <v>8</v>
       </c>
       <c r="L179" t="s">
+        <v>281</v>
+      </c>
+      <c r="M179" t="s">
         <v>282</v>
-      </c>
-      <c r="M179" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
@@ -4894,10 +4894,10 @@
         <v>8</v>
       </c>
       <c r="L180" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M180" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
@@ -4905,16 +4905,16 @@
         <v>8</v>
       </c>
       <c r="H181" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I181" t="s">
         <v>8</v>
       </c>
       <c r="L181" t="s">
+        <v>284</v>
+      </c>
+      <c r="M181" t="s">
         <v>285</v>
-      </c>
-      <c r="M181" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -4925,10 +4925,10 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M182" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -4939,10 +4939,10 @@
         <v>8</v>
       </c>
       <c r="L183" t="s">
+        <v>287</v>
+      </c>
+      <c r="M183" t="s">
         <v>288</v>
-      </c>
-      <c r="M183" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -4953,10 +4953,10 @@
         <v>8</v>
       </c>
       <c r="L184" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M184" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
@@ -4967,10 +4967,10 @@
         <v>8</v>
       </c>
       <c r="L185" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M185" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -4981,10 +4981,10 @@
         <v>8</v>
       </c>
       <c r="L186" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M186" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -4998,10 +4998,10 @@
         <v>8</v>
       </c>
       <c r="L187" t="s">
+        <v>292</v>
+      </c>
+      <c r="M187" t="s">
         <v>293</v>
-      </c>
-      <c r="M187" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -5012,10 +5012,10 @@
         <v>8</v>
       </c>
       <c r="L188" t="s">
+        <v>294</v>
+      </c>
+      <c r="M188" t="s">
         <v>295</v>
-      </c>
-      <c r="M188" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
@@ -5026,10 +5026,10 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M189" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -5043,10 +5043,10 @@
         <v>9</v>
       </c>
       <c r="L190" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M190" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -5057,10 +5057,10 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
+        <v>298</v>
+      </c>
+      <c r="M191" t="s">
         <v>299</v>
-      </c>
-      <c r="M191" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -5071,10 +5071,10 @@
         <v>8</v>
       </c>
       <c r="L192" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -5085,10 +5085,10 @@
         <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M193" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -5096,16 +5096,16 @@
         <v>28</v>
       </c>
       <c r="H194" t="s">
+        <v>138</v>
+      </c>
+      <c r="I194" t="s">
         <v>139</v>
       </c>
-      <c r="I194" t="s">
-        <v>140</v>
-      </c>
       <c r="L194" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -5119,10 +5119,10 @@
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M195" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
@@ -5133,10 +5133,10 @@
         <v>8</v>
       </c>
       <c r="L196" t="s">
+        <v>304</v>
+      </c>
+      <c r="M196" t="s">
         <v>305</v>
-      </c>
-      <c r="M196" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
@@ -5147,10 +5147,10 @@
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M197" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -5161,10 +5161,10 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M198" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -5175,10 +5175,10 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
+        <v>308</v>
+      </c>
+      <c r="M199" t="s">
         <v>309</v>
-      </c>
-      <c r="M199" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -5192,10 +5192,10 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
+        <v>310</v>
+      </c>
+      <c r="M200" t="s">
         <v>311</v>
-      </c>
-      <c r="M200" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -5206,10 +5206,10 @@
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M201" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
@@ -5220,10 +5220,10 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M202" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -5234,10 +5234,10 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
+        <v>314</v>
+      </c>
+      <c r="M203" t="s">
         <v>315</v>
-      </c>
-      <c r="M203" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -5248,10 +5248,10 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M204" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -5262,10 +5262,10 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M205" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -5276,10 +5276,10 @@
         <v>8</v>
       </c>
       <c r="L206" t="s">
+        <v>318</v>
+      </c>
+      <c r="M206" t="s">
         <v>319</v>
-      </c>
-      <c r="M206" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -5290,10 +5290,10 @@
         <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M207" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -5301,16 +5301,16 @@
         <v>8</v>
       </c>
       <c r="H208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I208" t="s">
         <v>8</v>
       </c>
       <c r="L208" t="s">
+        <v>321</v>
+      </c>
+      <c r="M208" t="s">
         <v>322</v>
-      </c>
-      <c r="M208" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -5321,10 +5321,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M209" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
@@ -5335,10 +5335,10 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M210" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -5352,10 +5352,10 @@
         <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M211" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
@@ -5366,10 +5366,10 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M212" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -5383,10 +5383,10 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M213" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -5397,10 +5397,10 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
+        <v>328</v>
+      </c>
+      <c r="M214" t="s">
         <v>329</v>
-      </c>
-      <c r="M214" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -5414,10 +5414,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M215" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -5428,10 +5428,10 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
+        <v>331</v>
+      </c>
+      <c r="M216" t="s">
         <v>332</v>
-      </c>
-      <c r="M216" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -5442,10 +5442,10 @@
         <v>8</v>
       </c>
       <c r="L217" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M217" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -5456,10 +5456,10 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
+        <v>334</v>
+      </c>
+      <c r="M218" t="s">
         <v>335</v>
-      </c>
-      <c r="M218" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -5470,10 +5470,10 @@
         <v>8</v>
       </c>
       <c r="L219" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M219" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
@@ -5481,16 +5481,16 @@
         <v>8</v>
       </c>
       <c r="H220" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I220" t="s">
         <v>8</v>
       </c>
       <c r="L220" t="s">
+        <v>337</v>
+      </c>
+      <c r="M220" t="s">
         <v>338</v>
-      </c>
-      <c r="M220" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -5501,10 +5501,10 @@
         <v>8</v>
       </c>
       <c r="L221" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M221" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -5515,10 +5515,10 @@
         <v>8</v>
       </c>
       <c r="L222" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M222" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="L223" t="s">
+        <v>341</v>
+      </c>
+      <c r="M223" t="s">
         <v>342</v>
-      </c>
-      <c r="M223" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -5546,10 +5546,10 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
+        <v>343</v>
+      </c>
+      <c r="M224" t="s">
         <v>344</v>
-      </c>
-      <c r="M224" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -5560,10 +5560,10 @@
         <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M225" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
@@ -5574,10 +5574,10 @@
         <v>8</v>
       </c>
       <c r="L226" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M226" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
@@ -5591,10 +5591,10 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M227" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -5605,10 +5605,10 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
+        <v>348</v>
+      </c>
+      <c r="M228" t="s">
         <v>349</v>
-      </c>
-      <c r="M228" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -5619,10 +5619,10 @@
         <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M229" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -5630,13 +5630,13 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C230" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D230" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H230" t="s">
         <v>7</v>
@@ -5645,10 +5645,10 @@
         <v>8</v>
       </c>
       <c r="L230" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M230" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -5659,10 +5659,10 @@
         <v>8</v>
       </c>
       <c r="L231" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M231" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
@@ -5676,10 +5676,10 @@
         <v>8</v>
       </c>
       <c r="L232" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M232" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
@@ -5687,22 +5687,22 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C233" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D233" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I233" t="s">
         <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M233" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
@@ -5713,10 +5713,10 @@
         <v>8</v>
       </c>
       <c r="L234" t="s">
+        <v>355</v>
+      </c>
+      <c r="M234" t="s">
         <v>356</v>
-      </c>
-      <c r="M234" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
@@ -5724,22 +5724,22 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C235" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D235" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I235" t="s">
         <v>8</v>
       </c>
       <c r="L235" t="s">
+        <v>357</v>
+      </c>
+      <c r="M235" t="s">
         <v>358</v>
-      </c>
-      <c r="M235" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
@@ -5747,13 +5747,13 @@
         <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C236" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D236" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H236" t="s">
         <v>7</v>
@@ -5762,10 +5762,10 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
+        <v>359</v>
+      </c>
+      <c r="M236" t="s">
         <v>360</v>
-      </c>
-      <c r="M236" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -5776,10 +5776,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M237" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
@@ -5790,10 +5790,10 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M238" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
@@ -5801,22 +5801,22 @@
         <v>5</v>
       </c>
       <c r="B239" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C239" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D239" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I239" t="s">
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M239" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -5827,10 +5827,10 @@
         <v>8</v>
       </c>
       <c r="L240" t="s">
+        <v>364</v>
+      </c>
+      <c r="M240" t="s">
         <v>365</v>
-      </c>
-      <c r="M240" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
@@ -5841,10 +5841,10 @@
         <v>8</v>
       </c>
       <c r="L241" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M241" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -5858,7 +5858,7 @@
         <v>66</v>
       </c>
       <c r="D242" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H242" t="s">
         <v>7</v>
@@ -5867,10 +5867,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
+        <v>367</v>
+      </c>
+      <c r="M242" t="s">
         <v>368</v>
-      </c>
-      <c r="M242" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
+        <v>369</v>
+      </c>
+      <c r="M243" t="s">
         <v>370</v>
-      </c>
-      <c r="M243" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
@@ -5895,10 +5895,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
+        <v>371</v>
+      </c>
+      <c r="M244" t="s">
         <v>372</v>
-      </c>
-      <c r="M244" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
@@ -5918,10 +5918,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M245" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
@@ -5932,10 +5932,10 @@
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M246" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
@@ -5955,10 +5955,10 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M247" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
@@ -5978,10 +5978,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
+        <v>376</v>
+      </c>
+      <c r="M248" t="s">
         <v>377</v>
-      </c>
-      <c r="M248" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
@@ -5995,10 +5995,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M249" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
@@ -6027,10 +6027,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M250" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
@@ -6044,10 +6044,10 @@
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M251" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -6076,10 +6076,10 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M252" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
@@ -6090,10 +6090,10 @@
         <v>8</v>
       </c>
       <c r="L253" t="s">
+        <v>382</v>
+      </c>
+      <c r="M253" t="s">
         <v>383</v>
-      </c>
-      <c r="M253" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
@@ -6107,10 +6107,10 @@
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M254" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
@@ -6139,10 +6139,10 @@
         <v>8</v>
       </c>
       <c r="L255" t="s">
+        <v>385</v>
+      </c>
+      <c r="M255" t="s">
         <v>386</v>
-      </c>
-      <c r="M255" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
@@ -6153,10 +6153,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
+        <v>387</v>
+      </c>
+      <c r="M256" t="s">
         <v>388</v>
-      </c>
-      <c r="M256" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
@@ -6164,10 +6164,10 @@
         <v>14</v>
       </c>
       <c r="L257" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M257" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -6178,10 +6178,10 @@
         <v>8</v>
       </c>
       <c r="L258" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M258" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
@@ -6213,10 +6213,10 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M259" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -6227,10 +6227,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
+        <v>392</v>
+      </c>
+      <c r="M260" t="s">
         <v>393</v>
-      </c>
-      <c r="M260" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
@@ -6259,10 +6259,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M261" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -6273,10 +6273,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M262" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
@@ -6287,10 +6287,10 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M263" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
@@ -6319,10 +6319,10 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
+        <v>397</v>
+      </c>
+      <c r="M264" t="s">
         <v>398</v>
-      </c>
-      <c r="M264" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
@@ -6336,10 +6336,10 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
+        <v>399</v>
+      </c>
+      <c r="M265" t="s">
         <v>400</v>
-      </c>
-      <c r="M265" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
@@ -6350,10 +6350,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
+        <v>401</v>
+      </c>
+      <c r="M266" t="s">
         <v>402</v>
-      </c>
-      <c r="M266" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -6382,10 +6382,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M267" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
@@ -6399,10 +6399,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
+        <v>404</v>
+      </c>
+      <c r="M268" t="s">
         <v>405</v>
-      </c>
-      <c r="M268" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
@@ -6413,10 +6413,10 @@
         <v>8</v>
       </c>
       <c r="L269" t="s">
+        <v>406</v>
+      </c>
+      <c r="M269" t="s">
         <v>407</v>
-      </c>
-      <c r="M269" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
@@ -6448,10 +6448,10 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M270" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
@@ -6462,10 +6462,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M271" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -6497,10 +6497,10 @@
         <v>8</v>
       </c>
       <c r="L272" t="s">
+        <v>410</v>
+      </c>
+      <c r="M272" t="s">
         <v>411</v>
-      </c>
-      <c r="M272" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
@@ -6511,10 +6511,10 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
+        <v>412</v>
+      </c>
+      <c r="M273" t="s">
         <v>413</v>
-      </c>
-      <c r="M273" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -6540,16 +6540,16 @@
         <v>6</v>
       </c>
       <c r="H274" t="s">
+        <v>414</v>
+      </c>
+      <c r="I274" t="s">
+        <v>8</v>
+      </c>
+      <c r="L274" t="s">
         <v>415</v>
       </c>
-      <c r="I274" t="s">
-        <v>8</v>
-      </c>
-      <c r="L274" t="s">
+      <c r="M274" t="s">
         <v>416</v>
-      </c>
-      <c r="M274" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
@@ -6557,16 +6557,16 @@
         <v>28</v>
       </c>
       <c r="H275" t="s">
+        <v>138</v>
+      </c>
+      <c r="I275" t="s">
         <v>139</v>
       </c>
-      <c r="I275" t="s">
-        <v>140</v>
-      </c>
       <c r="L275" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M275" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
@@ -6577,10 +6577,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
+        <v>418</v>
+      </c>
+      <c r="M276" t="s">
         <v>419</v>
-      </c>
-      <c r="M276" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -6612,10 +6612,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M277" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
@@ -6626,10 +6626,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
+        <v>421</v>
+      </c>
+      <c r="M278" t="s">
         <v>422</v>
-      </c>
-      <c r="M278" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
@@ -6640,10 +6640,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M279" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
@@ -6672,10 +6672,10 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
+        <v>424</v>
+      </c>
+      <c r="M280" t="s">
         <v>425</v>
-      </c>
-      <c r="M280" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="L281" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M281" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
@@ -6700,10 +6700,10 @@
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M282" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
@@ -6714,10 +6714,10 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M283" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
@@ -6743,13 +6743,13 @@
         <v>6</v>
       </c>
       <c r="H284" t="s">
+        <v>429</v>
+      </c>
+      <c r="I284" t="s">
+        <v>8</v>
+      </c>
+      <c r="L284" t="s">
         <v>430</v>
-      </c>
-      <c r="I284" t="s">
-        <v>8</v>
-      </c>
-      <c r="L284" t="s">
-        <v>431</v>
       </c>
       <c r="M284" t="s">
         <v>43</v>
@@ -6781,10 +6781,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
+        <v>431</v>
+      </c>
+      <c r="M285" t="s">
         <v>432</v>
-      </c>
-      <c r="M285" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
@@ -6795,10 +6795,10 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M286" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
@@ -6827,10 +6827,10 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M287" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
@@ -6844,10 +6844,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M288" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
@@ -6858,10 +6858,10 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
+        <v>437</v>
+      </c>
+      <c r="M289" t="s">
         <v>438</v>
-      </c>
-      <c r="M289" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
@@ -6893,10 +6893,10 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M290" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
@@ -6907,10 +6907,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M291" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
@@ -6924,10 +6924,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M292" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -6938,10 +6938,10 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
+        <v>442</v>
+      </c>
+      <c r="M293" t="s">
         <v>443</v>
-      </c>
-      <c r="M293" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
@@ -6952,10 +6952,10 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M294" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
@@ -6984,10 +6984,10 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M295" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
@@ -7016,10 +7016,10 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
+        <v>446</v>
+      </c>
+      <c r="M296" t="s">
         <v>447</v>
-      </c>
-      <c r="M296" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
@@ -7027,16 +7027,16 @@
         <v>3</v>
       </c>
       <c r="H297" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I297" t="s">
         <v>8</v>
       </c>
       <c r="L297" t="s">
+        <v>448</v>
+      </c>
+      <c r="M297" t="s">
         <v>449</v>
-      </c>
-      <c r="M297" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
@@ -7065,10 +7065,10 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M298" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
@@ -7079,7 +7079,7 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M299" t="s">
         <v>28</v>
@@ -7090,16 +7090,16 @@
         <v>28</v>
       </c>
       <c r="H300" t="s">
+        <v>138</v>
+      </c>
+      <c r="I300" t="s">
         <v>139</v>
       </c>
-      <c r="I300" t="s">
-        <v>140</v>
-      </c>
       <c r="L300" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M300" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
@@ -7110,10 +7110,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
+        <v>453</v>
+      </c>
+      <c r="M301" t="s">
         <v>454</v>
-      </c>
-      <c r="M301" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
@@ -7142,10 +7142,10 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
+        <v>455</v>
+      </c>
+      <c r="M302" t="s">
         <v>456</v>
-      </c>
-      <c r="M302" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
@@ -7156,10 +7156,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M303" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
@@ -7170,10 +7170,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
+        <v>458</v>
+      </c>
+      <c r="M304" t="s">
         <v>459</v>
-      </c>
-      <c r="M304" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
@@ -7184,10 +7184,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M305" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -7219,10 +7219,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M306" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
@@ -7233,10 +7233,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M307" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
@@ -7265,10 +7265,10 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M308" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -7276,16 +7276,16 @@
         <v>3</v>
       </c>
       <c r="H309" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I309" t="s">
         <v>8</v>
       </c>
       <c r="L309" t="s">
+        <v>464</v>
+      </c>
+      <c r="M309" t="s">
         <v>465</v>
-      </c>
-      <c r="M309" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
@@ -7314,10 +7314,10 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
+        <v>466</v>
+      </c>
+      <c r="M310" t="s">
         <v>467</v>
-      </c>
-      <c r="M310" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
@@ -7331,10 +7331,10 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M311" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -7363,10 +7363,10 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M312" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -7374,16 +7374,16 @@
         <v>28</v>
       </c>
       <c r="H313" t="s">
+        <v>138</v>
+      </c>
+      <c r="I313" t="s">
         <v>139</v>
       </c>
-      <c r="I313" t="s">
-        <v>140</v>
-      </c>
       <c r="L313" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M313" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
@@ -7394,10 +7394,10 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
+        <v>471</v>
+      </c>
+      <c r="M314" t="s">
         <v>472</v>
-      </c>
-      <c r="M314" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
@@ -7426,10 +7426,10 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
+        <v>473</v>
+      </c>
+      <c r="M315" t="s">
         <v>474</v>
-      </c>
-      <c r="M315" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
@@ -7440,10 +7440,10 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
+        <v>475</v>
+      </c>
+      <c r="M316" t="s">
         <v>476</v>
-      </c>
-      <c r="M316" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
@@ -7454,10 +7454,10 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M317" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
@@ -7471,10 +7471,10 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
+        <v>478</v>
+      </c>
+      <c r="M318" t="s">
         <v>479</v>
-      </c>
-      <c r="M318" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.3">
@@ -7503,10 +7503,10 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M319" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
@@ -7517,10 +7517,10 @@
         <v>8</v>
       </c>
       <c r="L320" t="s">
+        <v>481</v>
+      </c>
+      <c r="M320" t="s">
         <v>482</v>
-      </c>
-      <c r="M320" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
@@ -7531,10 +7531,10 @@
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M321" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
@@ -7563,10 +7563,10 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M322" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
@@ -7595,10 +7595,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M323" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
@@ -7606,16 +7606,16 @@
         <v>3</v>
       </c>
       <c r="H324" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I324" t="s">
         <v>8</v>
       </c>
       <c r="L324" t="s">
+        <v>486</v>
+      </c>
+      <c r="M324" t="s">
         <v>487</v>
-      </c>
-      <c r="M324" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
@@ -7644,10 +7644,10 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
+        <v>488</v>
+      </c>
+      <c r="M325" t="s">
         <v>489</v>
-      </c>
-      <c r="M325" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
@@ -7658,10 +7658,10 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M326" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -7675,10 +7675,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
+        <v>491</v>
+      </c>
+      <c r="M327" t="s">
         <v>492</v>
-      </c>
-      <c r="M327" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -7689,10 +7689,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M328" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
+        <v>494</v>
+      </c>
+      <c r="M329" t="s">
         <v>495</v>
-      </c>
-      <c r="M329" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
@@ -7735,10 +7735,10 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
+        <v>496</v>
+      </c>
+      <c r="M330" t="s">
         <v>497</v>
-      </c>
-      <c r="M330" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
@@ -7746,16 +7746,16 @@
         <v>3</v>
       </c>
       <c r="H331" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I331" t="s">
         <v>8</v>
       </c>
       <c r="L331" t="s">
+        <v>498</v>
+      </c>
+      <c r="M331" t="s">
         <v>499</v>
-      </c>
-      <c r="M331" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
@@ -7766,10 +7766,10 @@
         <v>8</v>
       </c>
       <c r="L332" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M332" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
@@ -7798,10 +7798,10 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M333" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
@@ -7827,13 +7827,13 @@
         <v>6</v>
       </c>
       <c r="H334" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I334" t="s">
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M334" t="s">
         <v>23</v>
@@ -7847,10 +7847,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
+        <v>503</v>
+      </c>
+      <c r="M335" t="s">
         <v>504</v>
-      </c>
-      <c r="M335" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
@@ -7879,10 +7879,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
+        <v>505</v>
+      </c>
+      <c r="M336" t="s">
         <v>506</v>
-      </c>
-      <c r="M336" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
@@ -7893,10 +7893,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
+        <v>507</v>
+      </c>
+      <c r="M337" t="s">
         <v>508</v>
-      </c>
-      <c r="M337" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
@@ -7907,10 +7907,10 @@
         <v>8</v>
       </c>
       <c r="L338" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M338" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
@@ -7939,10 +7939,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
+        <v>510</v>
+      </c>
+      <c r="M339" t="s">
         <v>511</v>
-      </c>
-      <c r="M339" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
@@ -7950,16 +7950,16 @@
         <v>3</v>
       </c>
       <c r="H340" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I340" t="s">
         <v>8</v>
       </c>
       <c r="L340" t="s">
+        <v>512</v>
+      </c>
+      <c r="M340" t="s">
         <v>513</v>
-      </c>
-      <c r="M340" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
+        <v>514</v>
+      </c>
+      <c r="M341" t="s">
         <v>515</v>
-      </c>
-      <c r="M341" t="s">
-        <v>516</v>
       </c>
     </row>
   </sheetData>
